--- a/InsuranceAgency/Content/Reports/ReportResult.xlsx
+++ b/InsuranceAgency/Content/Reports/ReportResult.xlsx
@@ -440,10 +440,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>

--- a/InsuranceAgency/Content/Reports/ReportResult.xlsx
+++ b/InsuranceAgency/Content/Reports/ReportResult.xlsx
@@ -440,13 +440,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>53500</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>437000</v>
       </c>
     </row>
   </sheetData>
